--- a/results/FrequencyTables/26581162_sg223R.xlsx
+++ b/results/FrequencyTables/26581162_sg223R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00436363636363636</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00218181818181818</v>
       </c>
       <c r="D2">
-        <v>0.39</v>
+        <v>0.378181818181818</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0269090909090909</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00290909090909091</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.985454545454545</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.00727272727272727</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00363636363636364</v>
       </c>
       <c r="K2">
-        <v>0.43</v>
+        <v>0.356363636363636</v>
       </c>
       <c r="L2">
-        <v>0.99</v>
+        <v>0.968727272727273</v>
       </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>0.00436363636363636</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0327272727272727</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00509090909090909</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.979636363636364</v>
       </c>
       <c r="Q2">
-        <v>0.06</v>
+        <v>0.0385454545454545</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00436363636363636</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.979636363636364</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000727272727272727</v>
       </c>
       <c r="U2">
-        <v>0.04</v>
+        <v>0.0443636363636364</v>
       </c>
       <c r="V2">
-        <v>0.01</v>
+        <v>0.0152727272727273</v>
       </c>
       <c r="W2">
-        <v>0.26</v>
+        <v>0.277090909090909</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00945454545454546</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,25 +539,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.965818181818182</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00290909090909091</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00363636363636364</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.992727272727273</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0123636363636364</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00872727272727273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -566,46 +566,46 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000727272727272727</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0.0101818181818182</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00436363636363636</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00509090909090909</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00436363636363636</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00727272727272727</v>
       </c>
       <c r="Q3">
-        <v>0.04</v>
+        <v>0.0625454545454545</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00727272727272727</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00145454545454545</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.973090909090909</v>
       </c>
       <c r="U3">
-        <v>0.94</v>
+        <v>0.850181818181818</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>0.962909090909091</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00145454545454545</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00218181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00945454545454546</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.0123636363636364</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00290909090909091</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00218181818181818</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00581818181818182</v>
       </c>
       <c r="I4">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.994909090909091</v>
       </c>
       <c r="K4">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0196363636363636</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0196363636363636</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>0.928727272727273</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00727272727272727</v>
       </c>
       <c r="Q4">
-        <v>0.17</v>
+        <v>0.330909090909091</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.977454545454545</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0123636363636364</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0167272727272727</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0203636363636364</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0101818181818182</v>
       </c>
       <c r="W4">
-        <v>0.38</v>
+        <v>0.526545454545455</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.985454545454545</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0203636363636364</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0138181818181818</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.606545454545454</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000727272727272727</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00145454545454545</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.977454545454545</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000727272727272727</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00145454545454545</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000727272727272727</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00145454545454545</v>
       </c>
       <c r="M5">
-        <v>0.99</v>
+        <v>0.971636363636364</v>
       </c>
       <c r="N5">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00654545454545455</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00581818181818182</v>
       </c>
       <c r="Q5">
-        <v>0.73</v>
+        <v>0.568</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0109090909090909</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00654545454545455</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00945454545454546</v>
       </c>
       <c r="U5">
-        <v>0.02</v>
+        <v>0.0850909090909091</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0116363636363636</v>
       </c>
       <c r="W5">
-        <v>0.36</v>
+        <v>0.193454545454545</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00218181818181818</v>
       </c>
     </row>
   </sheetData>
